--- a/data/case1/5/Q_device_13.xlsx
+++ b/data/case1/5/Q_device_13.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.016632551542885007</v>
+        <v>-0.032160878831703751</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.01660912614558422</v>
+        <v>-0.032223395104730081</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.010765965919392238</v>
+        <v>-0.013920030670878566</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.010976124636715576</v>
+        <v>-0.021384908622313414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.017750115263629174</v>
+        <v>-0.069483840199985783</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.058433393813468362</v>
+        <v>-0.069499642919175958</v>
       </c>
     </row>
     <row r="4">
